--- a/10_waittime.xlsx
+++ b/10_waittime.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoxuren/Documents/csc591-network sci/wait_time_USA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoxuren/Documents/csc591-network sci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25F473B2-85BC-7D4D-85FE-143D36988092}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1248FE7-E710-1F43-824D-B02982ED3F18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11080" yWindow="4800" windowWidth="27640" windowHeight="16940" xr2:uid="{2E70E733-8540-A849-A438-2D3A6FDF7565}"/>
+    <workbookView xWindow="5960" yWindow="3000" windowWidth="27640" windowHeight="16940" xr2:uid="{2E70E733-8540-A849-A438-2D3A6FDF7565}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,36 +26,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>san_f</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ATL</t>
   </si>
   <si>
-    <t>charlotte</t>
-  </si>
-  <si>
-    <t>dallas</t>
-  </si>
-  <si>
-    <t>denver</t>
-  </si>
-  <si>
-    <t>jfk</t>
-  </si>
-  <si>
-    <t>las</t>
-  </si>
-  <si>
-    <t>lax</t>
-  </si>
-  <si>
-    <t>chicago</t>
-  </si>
-  <si>
-    <t>seattle</t>
+    <t>SFO</t>
+  </si>
+  <si>
+    <t>CLT</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>JFK</t>
+  </si>
+  <si>
+    <t>LAS</t>
+  </si>
+  <si>
+    <t>LAX</t>
+  </si>
+  <si>
+    <t>ORD</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -406,17 +410,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B47E114-4454-044B-ACBD-624990832D62}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>22.817697200000001</v>
@@ -424,7 +428,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>12.681034500000001</v>
@@ -492,6 +496,11 @@
       </c>
       <c r="B10">
         <v>11.238317800000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
